--- a/assets/overview_of_digital_assets-Template.xlsx
+++ b/assets/overview_of_digital_assets-Template.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Size of existing collection: number of items and storage requirements</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Storage location (where and how much redundancy?)</t>
   </si>
@@ -41,9 +38,6 @@
     <t>Anticipated growth rate- existing and new collections</t>
   </si>
   <si>
-    <t>Existing metadata</t>
-  </si>
-  <si>
     <t>Copyright/ access restrictions</t>
   </si>
   <si>
@@ -51,6 +45,15 @@
   </si>
   <si>
     <t>Vulnerabilities</t>
+  </si>
+  <si>
+    <t>COLLECTION</t>
+  </si>
+  <si>
+    <t>Existing metadata (Administrative, Descriptive, Preservation, Technical -- all or some)</t>
+  </si>
+  <si>
+    <t>Size of existing collection:  number of items and storage requirements</t>
   </si>
 </sst>
 </file>
@@ -371,45 +374,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="9" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="10" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/assets/overview_of_digital_assets-Template.xlsx
+++ b/assets/overview_of_digital_assets-Template.xlsx
@@ -9,22 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Storage location (where and how much redundancy?)</t>
   </si>
@@ -32,21 +38,12 @@
     <t>Format of objects</t>
   </si>
   <si>
-    <t>Relationships between objects</t>
-  </si>
-  <si>
     <t>Anticipated growth rate- existing and new collections</t>
   </si>
   <si>
     <t>Copyright/ access restrictions</t>
   </si>
   <si>
-    <t>Search functionality for objects</t>
-  </si>
-  <si>
-    <t>Vulnerabilities</t>
-  </si>
-  <si>
     <t>COLLECTION</t>
   </si>
   <si>
@@ -54,13 +51,55 @@
   </si>
   <si>
     <t>Size of existing collection:  number of items and storage requirements</t>
+  </si>
+  <si>
+    <t>Is the material born digital; converted from analogue to digital, or a hybrid of both?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority </t>
+  </si>
+  <si>
+    <t>Vulnerabilities/Risks</t>
+  </si>
+  <si>
+    <t>Barnard Stockbridge</t>
+  </si>
+  <si>
+    <t>2300 items; .8TB</t>
+  </si>
+  <si>
+    <t>UIDigArchive; External Hard Drive; Internal Hard drive</t>
+  </si>
+  <si>
+    <t>analogue prints scanned to digital TIFFs</t>
+  </si>
+  <si>
+    <t>TIFFs; JPGs</t>
+  </si>
+  <si>
+    <t>~500 items per year</t>
+  </si>
+  <si>
+    <t>Descriptive; technical</t>
+  </si>
+  <si>
+    <t>Public Domain</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>File naming based on Boxes; possible confusion</t>
+  </si>
+  <si>
+    <t>AN EXAMPLE:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +107,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,17 +137,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,51 +444,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="10" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="5" max="9" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
